--- a/vacation-rental-testing/src/output.xlsx
+++ b/vacation-rental-testing/src/output.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>182.160.106.203</t>
+          <t>45.248.151.110</t>
         </is>
       </c>
     </row>
